--- a/Team12Report (6).xlsx
+++ b/Team12Report (6).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antond/Documents/cs555/CS555/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F2767-B02B-2C4F-99DE-50F0C3FCE703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477270B9-7785-1A43-B358-43A9C0FC9A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="188">
   <si>
     <t>Initials</t>
   </si>
@@ -1079,6 +1079,9 @@
                 <c:pt idx="3">
                   <c:v>44865</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44893</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1099,6 +1102,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3193,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D25"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3462,6 +3468,9 @@
       <c r="D14" t="s">
         <v>177</v>
       </c>
+      <c r="E14" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -3476,6 +3485,9 @@
       <c r="D15" t="s">
         <v>177</v>
       </c>
+      <c r="E15" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -3490,7 +3502,7 @@
       <c r="D16" t="s">
         <v>178</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3507,7 +3519,7 @@
       <c r="D17" t="s">
         <v>178</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3524,6 +3536,9 @@
       <c r="D18" t="s">
         <v>179</v>
       </c>
+      <c r="E18" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -3538,6 +3553,9 @@
       <c r="D19" t="s">
         <v>179</v>
       </c>
+      <c r="E19" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -3552,6 +3570,9 @@
       <c r="D20" t="s">
         <v>179</v>
       </c>
+      <c r="E20" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -3566,6 +3587,9 @@
       <c r="D21" t="s">
         <v>178</v>
       </c>
+      <c r="E21" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -3580,6 +3604,9 @@
       <c r="D22" t="s">
         <v>177</v>
       </c>
+      <c r="E22" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -3594,6 +3621,9 @@
       <c r="D23" t="s">
         <v>177</v>
       </c>
+      <c r="E23" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -3608,6 +3638,9 @@
       <c r="D24" t="s">
         <v>179</v>
       </c>
+      <c r="E24" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -3621,6 +3654,9 @@
       </c>
       <c r="D25" t="s">
         <v>178</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8780,8 +8816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8914,8 +8950,25 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="4">
+        <v>44893</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>74</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6/E6</f>
+        <v>0.97297297297297303</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
@@ -19559,13 +19612,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="26" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="26" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19616,8 +19671,14 @@
       <c r="F2">
         <v>15</v>
       </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19639,8 +19700,14 @@
       <c r="F3">
         <v>20</v>
       </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
       <c r="I3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19662,8 +19729,14 @@
       <c r="F4">
         <v>20</v>
       </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
       <c r="I4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19685,8 +19758,14 @@
       <c r="F5">
         <v>10</v>
       </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
       <c r="I5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19708,8 +19787,14 @@
       <c r="F6">
         <v>20</v>
       </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19731,14 +19816,29 @@
       <c r="F7">
         <v>10</v>
       </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G11">
+        <f>SUM(G2:G7)</f>
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H2:H7)</f>
+        <v>74</v>
+      </c>
+    </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20738,15 +20838,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="3" max="3" width="116.6640625" customWidth="1"/>
     <col min="4" max="26" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
